--- a/regionseng/5/industry/industry.xlsx
+++ b/regionseng/5/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -179,6 +179,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +496,7 @@
     <col min="1" max="1" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -510,7 +513,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -557,8 +560,14 @@
       <c r="P2" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -607,8 +616,14 @@
       <c r="P3" s="7">
         <v>614.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>756.6</v>
+      </c>
+      <c r="R3" s="7">
+        <v>595.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -657,8 +672,14 @@
       <c r="P4" s="7">
         <v>548.20000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7">
+        <v>706</v>
+      </c>
+      <c r="R4" s="7">
+        <v>561.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -707,8 +728,14 @@
       <c r="P5" s="10">
         <v>2827</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="10">
+        <v>2918</v>
+      </c>
+      <c r="R5" s="10">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -757,8 +784,14 @@
       <c r="P6" s="10">
         <v>2567</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="10">
+        <v>2539</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -807,8 +840,14 @@
       <c r="P7" s="7">
         <v>1459.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="7">
+        <v>1584.6</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1781.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -857,8 +896,14 @@
       <c r="P8" s="7">
         <v>267.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="7">
+        <v>362.2</v>
+      </c>
+      <c r="R8" s="7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -907,8 +952,14 @@
       <c r="P9" s="7">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="R9" s="7">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -957,8 +1008,14 @@
       <c r="P10" s="7">
         <v>280.39999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="7">
+        <v>343.9</v>
+      </c>
+      <c r="R10" s="7">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1064,14 @@
       <c r="P11" s="7">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="7">
+        <v>72</v>
+      </c>
+      <c r="R11" s="7">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1120,14 @@
       <c r="P12" s="7">
         <v>343.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="7">
+        <v>458.5</v>
+      </c>
+      <c r="R12" s="7">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>

--- a/regionseng/5/industry/industry.xlsx
+++ b/regionseng/5/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,8 +157,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -184,8 +185,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +498,7 @@
     <col min="1" max="1" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -513,7 +515,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -566,8 +568,11 @@
       <c r="R2" s="11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -622,8 +627,11 @@
       <c r="R3" s="7">
         <v>595.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="7">
+        <v>658.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -678,8 +686,11 @@
       <c r="R4" s="7">
         <v>561.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="7">
+        <v>635.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -734,8 +745,11 @@
       <c r="R5" s="10">
         <v>3073</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="8">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -790,8 +804,11 @@
       <c r="R6" s="10">
         <v>2563</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="8">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -846,8 +863,11 @@
       <c r="R7" s="7">
         <v>1781.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="7">
+        <v>2210.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -902,8 +922,11 @@
       <c r="R8" s="7">
         <v>319</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="7">
+        <v>368.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -958,8 +981,11 @@
       <c r="R9" s="7">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="7">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1040,11 @@
       <c r="R10" s="7">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="7">
+        <v>267.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1099,11 @@
       <c r="R11" s="7">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="7">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1126,8 +1158,11 @@
       <c r="R12" s="7">
         <v>367.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
